--- a/Sapflow_data_supporting/Sapflow_bad_data_windows_Jose.xlsx
+++ b/Sapflow_data_supporting/Sapflow_bad_data_windows_Jose.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luky-my.sharepoint.com/personal/drva228_uky_edu/Documents/TMCF/Continuous_data/TMCF_Sapflow/Sapflow_data_supporting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1559" documentId="11_F25DC773A252ABDACC1048B8C95958525ADE58FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20F5A388-7953-435D-B1F9-C058DFA181A6}"/>
+  <xr:revisionPtr revIDLastSave="1561" documentId="11_F25DC773A252ABDACC1048B8C95958525ADE58FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795B0386-A04F-4132-B09C-FCE79621F730}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ET" sheetId="1" r:id="rId1"/>
@@ -761,9 +761,6 @@
     <t>2023-04-13 12:00</t>
   </si>
   <si>
-    <t>2022-05-09 01:30</t>
-  </si>
-  <si>
     <t>2023-05-11 11:30</t>
   </si>
   <si>
@@ -885,6 +882,9 @@
   </si>
   <si>
     <t>2023-04-14 13:00</t>
+  </si>
+  <si>
+    <t>2023-05-09 01:30</t>
   </si>
 </sst>
 </file>
@@ -1238,38 +1238,38 @@
       <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I13" t="s">
         <v>28</v>
@@ -1823,7 +1823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>132</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>132</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>132</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>132</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>132</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>132</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>132</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>132</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>151</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J62" t="s">
         <v>28</v>
@@ -3436,227 +3436,227 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
@@ -3671,42 +3671,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8707AFCB-8DD6-4F98-A320-228BEFEEF599}">
   <dimension ref="A1:AB229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="64.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>165</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>166</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -4220,7 +4220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>165</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>165</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>172</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>172</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>180</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>180</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>180</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>180</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>180</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>180</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>195</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>195</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>195</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>210</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>210</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>210</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>210</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>210</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>210</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>210</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>210</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>224</v>
       </c>
@@ -5466,759 +5466,759 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
     </row>
@@ -6232,41 +6232,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7571ECA1-44C9-4C8F-A999-275E33AC3F9F}">
   <dimension ref="A1:AB337"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6352,7 +6354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>232</v>
       </c>
@@ -6408,7 +6410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>232</v>
       </c>
@@ -6467,7 +6469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>232</v>
       </c>
@@ -6526,7 +6528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>232</v>
       </c>
@@ -6558,7 +6560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -6581,7 +6583,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>232</v>
       </c>
@@ -6601,19 +6603,19 @@
         <v>28</v>
       </c>
       <c r="AB7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>232</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
@@ -6666,1074 +6668,1074 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9" t="s">
-        <v>28</v>
-      </c>
-      <c r="T9" t="s">
-        <v>28</v>
-      </c>
-      <c r="U9" t="s">
-        <v>28</v>
-      </c>
-      <c r="W9" t="s">
-        <v>28</v>
-      </c>
-      <c r="X9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB10" t="s">
         <v>251</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U10" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" t="s">
-        <v>28</v>
-      </c>
-      <c r="W10" t="s">
-        <v>28</v>
-      </c>
-      <c r="X10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB10" t="s">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="W12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="V13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T11" t="s">
-        <v>28</v>
-      </c>
-      <c r="U11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="W12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="V13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" t="s">
+        <v>28</v>
+      </c>
+      <c r="V17" t="s">
+        <v>28</v>
+      </c>
+      <c r="W17" t="s">
+        <v>28</v>
+      </c>
+      <c r="X17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" t="s">
+        <v>28</v>
+      </c>
+      <c r="X18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" t="s">
+        <v>28</v>
+      </c>
+      <c r="V19" t="s">
+        <v>28</v>
+      </c>
+      <c r="W19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S20" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" t="s">
+        <v>28</v>
+      </c>
+      <c r="W20" t="s">
+        <v>28</v>
+      </c>
+      <c r="X20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" t="s">
+        <v>28</v>
+      </c>
+      <c r="W21" t="s">
+        <v>28</v>
+      </c>
+      <c r="X21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>261</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O16" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" t="s">
-        <v>28</v>
-      </c>
-      <c r="S16" t="s">
-        <v>28</v>
-      </c>
-      <c r="T16" t="s">
-        <v>28</v>
-      </c>
-      <c r="U16" t="s">
-        <v>28</v>
-      </c>
-      <c r="V16" t="s">
-        <v>28</v>
-      </c>
-      <c r="W16" t="s">
-        <v>28</v>
-      </c>
-      <c r="X16" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B22" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" t="s">
+        <v>28</v>
+      </c>
+      <c r="W22" t="s">
+        <v>28</v>
+      </c>
+      <c r="X22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>261</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O17" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>28</v>
-      </c>
-      <c r="R17" t="s">
-        <v>28</v>
-      </c>
-      <c r="S17" t="s">
-        <v>28</v>
-      </c>
-      <c r="T17" t="s">
-        <v>28</v>
-      </c>
-      <c r="U17" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" t="s">
-        <v>28</v>
-      </c>
-      <c r="W17" t="s">
-        <v>28</v>
-      </c>
-      <c r="X17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B23" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23" t="s">
+        <v>28</v>
+      </c>
+      <c r="V23" t="s">
+        <v>28</v>
+      </c>
+      <c r="W23" t="s">
+        <v>28</v>
+      </c>
+      <c r="X23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>261</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>28</v>
-      </c>
-      <c r="R18" t="s">
-        <v>28</v>
-      </c>
-      <c r="S18" t="s">
-        <v>28</v>
-      </c>
-      <c r="T18" t="s">
-        <v>28</v>
-      </c>
-      <c r="U18" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" t="s">
-        <v>28</v>
-      </c>
-      <c r="W18" t="s">
-        <v>28</v>
-      </c>
-      <c r="X18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B24" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" t="s">
+        <v>28</v>
+      </c>
+      <c r="T24" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" t="s">
+        <v>28</v>
+      </c>
+      <c r="V24" t="s">
+        <v>28</v>
+      </c>
+      <c r="W24" t="s">
+        <v>28</v>
+      </c>
+      <c r="X24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>261</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" t="s">
-        <v>28</v>
-      </c>
-      <c r="O19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>28</v>
-      </c>
-      <c r="R19" t="s">
-        <v>28</v>
-      </c>
-      <c r="S19" t="s">
-        <v>28</v>
-      </c>
-      <c r="T19" t="s">
-        <v>28</v>
-      </c>
-      <c r="U19" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" t="s">
-        <v>28</v>
-      </c>
-      <c r="S20" t="s">
-        <v>28</v>
-      </c>
-      <c r="T20" t="s">
-        <v>28</v>
-      </c>
-      <c r="U20" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20" t="s">
-        <v>28</v>
-      </c>
-      <c r="W20" t="s">
-        <v>28</v>
-      </c>
-      <c r="X20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" t="s">
-        <v>28</v>
-      </c>
-      <c r="O21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>28</v>
-      </c>
-      <c r="R21" t="s">
-        <v>28</v>
-      </c>
-      <c r="S21" t="s">
-        <v>28</v>
-      </c>
-      <c r="T21" t="s">
-        <v>28</v>
-      </c>
-      <c r="U21" t="s">
-        <v>28</v>
-      </c>
-      <c r="V21" t="s">
-        <v>28</v>
-      </c>
-      <c r="W21" t="s">
-        <v>28</v>
-      </c>
-      <c r="X21" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>262</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" t="s">
-        <v>28</v>
-      </c>
-      <c r="M22" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22" t="s">
-        <v>28</v>
-      </c>
-      <c r="S22" t="s">
-        <v>28</v>
-      </c>
-      <c r="T22" t="s">
-        <v>28</v>
-      </c>
-      <c r="U22" t="s">
-        <v>28</v>
-      </c>
-      <c r="V22" t="s">
-        <v>28</v>
-      </c>
-      <c r="W22" t="s">
-        <v>28</v>
-      </c>
-      <c r="X22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>262</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" t="s">
-        <v>28</v>
-      </c>
-      <c r="M23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" t="s">
-        <v>28</v>
-      </c>
-      <c r="S23" t="s">
-        <v>28</v>
-      </c>
-      <c r="T23" t="s">
-        <v>28</v>
-      </c>
-      <c r="U23" t="s">
-        <v>28</v>
-      </c>
-      <c r="V23" t="s">
-        <v>28</v>
-      </c>
-      <c r="W23" t="s">
-        <v>28</v>
-      </c>
-      <c r="X23" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>262</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" t="s">
-        <v>28</v>
-      </c>
-      <c r="O24" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24" t="s">
-        <v>28</v>
-      </c>
-      <c r="S24" t="s">
-        <v>28</v>
-      </c>
-      <c r="T24" t="s">
-        <v>28</v>
-      </c>
-      <c r="U24" t="s">
-        <v>28</v>
-      </c>
-      <c r="V24" t="s">
-        <v>28</v>
-      </c>
-      <c r="W24" t="s">
-        <v>28</v>
-      </c>
-      <c r="X24" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>262</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="D25" t="s">
         <v>28</v>
       </c>
@@ -7810,1251 +7812,1251 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
     </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
     </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
     </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
     </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
     </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
     </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
     </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
     </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
     </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
     </row>
